--- a/Code/Results/Cases/Case_5_92/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_92/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.48568158992247</v>
+        <v>7.965722762100372</v>
       </c>
       <c r="C2">
-        <v>7.56411072026003</v>
+        <v>5.141302184792995</v>
       </c>
       <c r="D2">
-        <v>4.929213935328811</v>
+        <v>5.033115134359028</v>
       </c>
       <c r="E2">
-        <v>14.53766513045975</v>
+        <v>12.80736667787291</v>
       </c>
       <c r="F2">
-        <v>18.53093158748709</v>
+        <v>24.52540140325567</v>
       </c>
       <c r="I2">
-        <v>13.65245404362565</v>
+        <v>20.88698452704859</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.5244868453155</v>
+        <v>8.019165173221673</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.61909876578474</v>
+        <v>13.34531255437553</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.95830983644645</v>
+        <v>21.98715207275361</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.74548873549436</v>
+        <v>7.65402397521884</v>
       </c>
       <c r="C3">
-        <v>7.18252637282922</v>
+        <v>4.955890905370566</v>
       </c>
       <c r="D3">
-        <v>4.780559640414927</v>
+        <v>4.977371347440099</v>
       </c>
       <c r="E3">
-        <v>13.68636619101352</v>
+        <v>12.60303087404094</v>
       </c>
       <c r="F3">
-        <v>18.20982345299315</v>
+        <v>24.55218966510245</v>
       </c>
       <c r="I3">
-        <v>13.79339473911719</v>
+        <v>20.97441576261756</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.93438972135755</v>
+        <v>7.732999789525079</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.69183501005369</v>
+        <v>13.16692806278943</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.93900022997181</v>
+        <v>22.05587897094485</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.266424276876</v>
+        <v>7.456945490711584</v>
       </c>
       <c r="C4">
-        <v>6.937602818620404</v>
+        <v>4.837442103993507</v>
       </c>
       <c r="D4">
-        <v>4.686346902682448</v>
+        <v>4.942317558238714</v>
       </c>
       <c r="E4">
-        <v>13.14970769416575</v>
+        <v>12.48047349263391</v>
       </c>
       <c r="F4">
-        <v>18.02827505040664</v>
+        <v>24.57542221950041</v>
       </c>
       <c r="I4">
-        <v>13.89117460176354</v>
+        <v>21.03228952619605</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.55499616345949</v>
+        <v>7.550151859790222</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.09251814847281</v>
+        <v>13.05933914864439</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.94112775021203</v>
+        <v>22.10305660923367</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.06505693115452</v>
+        <v>7.375323452522399</v>
       </c>
       <c r="C5">
-        <v>6.835175047657516</v>
+        <v>4.788058318118646</v>
       </c>
       <c r="D5">
-        <v>4.647248416088799</v>
+        <v>4.927831937099719</v>
       </c>
       <c r="E5">
-        <v>12.92772589886983</v>
+        <v>12.43133169749129</v>
       </c>
       <c r="F5">
-        <v>17.95820023484705</v>
+        <v>24.58659232514357</v>
       </c>
       <c r="I5">
-        <v>13.93372099688902</v>
+        <v>21.05692594679661</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.39617652844991</v>
+        <v>7.476200280888029</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.84074005464535</v>
+        <v>13.01603650315331</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.94537166972735</v>
+        <v>22.12353069553708</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.03125030630033</v>
+        <v>7.361694797733451</v>
       </c>
       <c r="C6">
-        <v>6.818010597212051</v>
+        <v>4.779792200726621</v>
       </c>
       <c r="D6">
-        <v>4.64071452239838</v>
+        <v>4.925414683452067</v>
       </c>
       <c r="E6">
-        <v>12.89067481928953</v>
+        <v>12.4232221718813</v>
       </c>
       <c r="F6">
-        <v>17.94679955042344</v>
+        <v>24.58854983368147</v>
       </c>
       <c r="I6">
-        <v>13.94094532621656</v>
+        <v>21.06108032764654</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.36955283739625</v>
+        <v>7.467170679401572</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.79847623032279</v>
+        <v>13.00888031663801</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.94627621977735</v>
+        <v>22.12700573098022</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.26373338578952</v>
+        <v>7.455849845605078</v>
       </c>
       <c r="C7">
-        <v>6.936231968087078</v>
+        <v>4.836780550537584</v>
       </c>
       <c r="D7">
-        <v>4.68582241976979</v>
+        <v>4.942123004240051</v>
       </c>
       <c r="E7">
-        <v>13.14672695735798</v>
+        <v>12.47980741243562</v>
       </c>
       <c r="F7">
-        <v>18.02731421013049</v>
+        <v>24.57556597457767</v>
       </c>
       <c r="I7">
-        <v>13.89173762568834</v>
+        <v>21.03261752230942</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.55287120908194</v>
+        <v>7.549130545273497</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.08915316705047</v>
+        <v>13.05875289551951</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.94117149751609</v>
+        <v>22.10332767787493</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.23558269944428</v>
+        <v>7.859499201187104</v>
       </c>
       <c r="C8">
-        <v>7.434774718065519</v>
+        <v>5.078352582384667</v>
       </c>
       <c r="D8">
-        <v>4.878586516352628</v>
+        <v>5.014070449092727</v>
       </c>
       <c r="E8">
-        <v>14.24715055730285</v>
+        <v>12.7363514881349</v>
       </c>
       <c r="F8">
-        <v>18.4169661581152</v>
+        <v>24.53322811958208</v>
       </c>
       <c r="I8">
-        <v>13.69863878958691</v>
+        <v>20.91626022354453</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.32460633082513</v>
+        <v>7.922014561031979</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.30558628744274</v>
+        <v>13.28343496710809</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.94866635325212</v>
+        <v>22.00981381961487</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.94544951531299</v>
+        <v>8.601234424360706</v>
       </c>
       <c r="C9">
-        <v>8.32634410766344</v>
+        <v>5.513886891621224</v>
       </c>
       <c r="D9">
-        <v>5.232002392878037</v>
+        <v>5.148299990107509</v>
       </c>
       <c r="E9">
-        <v>16.31136058670977</v>
+        <v>13.25932287702087</v>
       </c>
       <c r="F9">
-        <v>19.30514149561441</v>
+        <v>24.5041484902641</v>
       </c>
       <c r="I9">
-        <v>13.4152254321536</v>
+        <v>20.72139623791939</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.69994689329428</v>
+        <v>8.594070039828349</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.45450992405731</v>
+        <v>13.73706833516162</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.08042291320054</v>
+        <v>21.8660781323242</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.08195482199383</v>
+        <v>9.110477561380433</v>
       </c>
       <c r="C10">
-        <v>8.927335132998897</v>
+        <v>5.808712712280439</v>
       </c>
       <c r="D10">
-        <v>5.475174640630405</v>
+        <v>5.242351914854596</v>
       </c>
       <c r="E10">
-        <v>17.92033377456049</v>
+        <v>13.65140948460381</v>
       </c>
       <c r="F10">
-        <v>20.03288493734378</v>
+        <v>24.51576988589884</v>
       </c>
       <c r="I10">
-        <v>13.27397381089623</v>
+        <v>20.59862204425916</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.62390051949893</v>
+        <v>9.048888468086641</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.89178873242787</v>
+        <v>14.07512027044102</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.2566979585792</v>
+        <v>21.7848251991386</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.57311701866432</v>
+        <v>9.333490420013463</v>
       </c>
       <c r="C11">
-        <v>9.188853634096917</v>
+        <v>5.937057401422086</v>
       </c>
       <c r="D11">
-        <v>5.581965726553158</v>
+        <v>5.284069260736397</v>
       </c>
       <c r="E11">
-        <v>18.62331817302444</v>
+        <v>13.83059310120407</v>
       </c>
       <c r="F11">
-        <v>20.38004248077648</v>
+        <v>24.52822101173201</v>
       </c>
       <c r="I11">
-        <v>13.22635210320822</v>
+        <v>20.54721539386344</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.02520465290035</v>
+        <v>9.246858962109755</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.51567323137198</v>
+        <v>14.2292756108704</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.3558008969567</v>
+        <v>21.75318400529708</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.75541143259734</v>
+        <v>9.41663473316658</v>
       </c>
       <c r="C12">
-        <v>9.286172642748323</v>
+        <v>5.984806324020411</v>
       </c>
       <c r="D12">
-        <v>5.62183634180723</v>
+        <v>5.299706755940965</v>
       </c>
       <c r="E12">
-        <v>18.88547160860327</v>
+        <v>13.89849095896478</v>
       </c>
       <c r="F12">
-        <v>20.51379132779761</v>
+        <v>24.53396456655485</v>
       </c>
       <c r="I12">
-        <v>13.21089605756376</v>
+        <v>20.52838970739786</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.17442750621372</v>
+        <v>9.320508049894711</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.74768904748629</v>
+        <v>14.28764930269591</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.39617752084563</v>
+        <v>21.74197012221235</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.71631519114842</v>
+        <v>9.398787100625398</v>
       </c>
       <c r="C13">
-        <v>9.265289417906539</v>
+        <v>5.974560972415569</v>
       </c>
       <c r="D13">
-        <v>5.61327505420473</v>
+        <v>5.296346156374822</v>
       </c>
       <c r="E13">
-        <v>18.82919046120274</v>
+        <v>13.88386708427772</v>
       </c>
       <c r="F13">
-        <v>20.4848848054332</v>
+        <v>24.53268188013465</v>
       </c>
       <c r="I13">
-        <v>13.21410712462299</v>
+        <v>20.53241562197838</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.14241171103082</v>
+        <v>9.304705513978742</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.69790747581478</v>
+        <v>14.27507842103518</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.38735300914579</v>
+        <v>21.74435103576284</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.58818848020837</v>
+        <v>9.340357251516409</v>
       </c>
       <c r="C14">
-        <v>9.196894450104839</v>
+        <v>5.94100293431017</v>
       </c>
       <c r="D14">
-        <v>5.585257401962608</v>
+        <v>5.2853590089456</v>
       </c>
       <c r="E14">
-        <v>18.64496621011061</v>
+        <v>13.83617860997131</v>
       </c>
       <c r="F14">
-        <v>20.39100038517147</v>
+        <v>24.52867293627362</v>
       </c>
       <c r="I14">
-        <v>13.22502778006365</v>
+        <v>20.54565373807707</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.03753628758505</v>
+        <v>9.252944710849329</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.53484577322535</v>
+        <v>14.23407839364857</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.35906489878308</v>
+        <v>21.75224602635061</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.50922620932635</v>
+        <v>9.304395513631704</v>
       </c>
       <c r="C15">
-        <v>9.154777526435826</v>
+        <v>5.920336048848774</v>
       </c>
       <c r="D15">
-        <v>5.568021202772096</v>
+        <v>5.27860804438226</v>
       </c>
       <c r="E15">
-        <v>18.5315994270508</v>
+        <v>13.80697175704954</v>
       </c>
       <c r="F15">
-        <v>20.33379058921067</v>
+        <v>24.52635122747258</v>
       </c>
       <c r="I15">
-        <v>13.23205828295005</v>
+        <v>20.55384598555022</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.97293981378256</v>
+        <v>9.221067145753885</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.43441636880463</v>
+        <v>14.20896286649522</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.34211230578702</v>
+        <v>21.75718202471966</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.04933761707654</v>
+        <v>9.095723630263318</v>
       </c>
       <c r="C16">
-        <v>8.910004769616986</v>
+        <v>5.80020694011136</v>
       </c>
       <c r="D16">
-        <v>5.468116922619704</v>
+        <v>5.239603551682131</v>
       </c>
       <c r="E16">
-        <v>17.87381880565113</v>
+        <v>13.63970963483612</v>
       </c>
       <c r="F16">
-        <v>20.01051903882056</v>
+        <v>24.51510022490802</v>
       </c>
       <c r="I16">
-        <v>13.2774363596746</v>
+        <v>20.60207117220595</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.59729089415631</v>
+        <v>9.035767936540315</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.85041970184288</v>
+        <v>14.06504861764753</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.25061306200662</v>
+        <v>21.78700034265922</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.76060315591751</v>
+        <v>8.965448629305053</v>
       </c>
       <c r="C17">
-        <v>8.756797603212647</v>
+        <v>5.725016138413486</v>
       </c>
       <c r="D17">
-        <v>5.405834348136099</v>
+        <v>5.215397506003725</v>
       </c>
       <c r="E17">
-        <v>17.46295272965838</v>
+        <v>13.53725736105801</v>
       </c>
       <c r="F17">
-        <v>19.81630720273147</v>
+        <v>24.51003224200009</v>
       </c>
       <c r="I17">
-        <v>13.30966376581601</v>
+        <v>20.63279528418393</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.36196489781549</v>
+        <v>8.919780200733653</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.48453511526712</v>
+        <v>13.97681784869508</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.19941875166258</v>
+        <v>21.80665782983479</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.59209706747969</v>
+        <v>8.889707392374175</v>
       </c>
       <c r="C18">
-        <v>8.667558972573568</v>
+        <v>5.68122610695287</v>
       </c>
       <c r="D18">
-        <v>5.369651556574079</v>
+        <v>5.201374738014733</v>
       </c>
       <c r="E18">
-        <v>17.22390147542723</v>
+        <v>13.47841109920339</v>
       </c>
       <c r="F18">
-        <v>19.70611920899288</v>
+        <v>24.50779179285801</v>
       </c>
       <c r="I18">
-        <v>13.32975416938637</v>
+        <v>20.65088515368041</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.22482251059766</v>
+        <v>8.852228425000385</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.27126510965133</v>
+        <v>13.92610826829916</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.17174607946341</v>
+        <v>21.8184649968999</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.53462538628593</v>
+        <v>8.863925565900839</v>
       </c>
       <c r="C19">
-        <v>8.637152552862407</v>
+        <v>5.666307150132949</v>
       </c>
       <c r="D19">
-        <v>5.357339537795142</v>
+        <v>5.196609880101021</v>
       </c>
       <c r="E19">
-        <v>17.14249045061084</v>
+        <v>13.45850304328205</v>
       </c>
       <c r="F19">
-        <v>19.66907292686214</v>
+        <v>24.50714909866641</v>
       </c>
       <c r="I19">
-        <v>13.33681784674364</v>
+        <v>20.65708183776948</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.17808160254152</v>
+        <v>8.829213626259486</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.19856872901144</v>
+        <v>13.90894718262751</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.1626770940043</v>
+        <v>21.82254860889828</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.79159119958686</v>
+        <v>8.979400992261066</v>
       </c>
       <c r="C20">
-        <v>8.773222522936919</v>
+        <v>5.733076621983919</v>
       </c>
       <c r="D20">
-        <v>5.412501781747162</v>
+        <v>5.217984687531703</v>
       </c>
       <c r="E20">
-        <v>17.50697211060715</v>
+        <v>13.54815567507464</v>
       </c>
       <c r="F20">
-        <v>19.83682452887199</v>
+        <v>24.51050193583573</v>
       </c>
       <c r="I20">
-        <v>13.30607095144624</v>
+        <v>20.62948135721961</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.38720101135689</v>
+        <v>8.932214357619381</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.52377583102988</v>
+        <v>13.98620659300736</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.20468403365693</v>
+        <v>21.804513415427</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.62592259238287</v>
+        <v>9.357555410732243</v>
       </c>
       <c r="C21">
-        <v>9.217030188980761</v>
+        <v>5.950883040073342</v>
       </c>
       <c r="D21">
-        <v>5.593502436563578</v>
+        <v>5.288590592153461</v>
       </c>
       <c r="E21">
-        <v>18.69918634587205</v>
+        <v>13.85018522412683</v>
       </c>
       <c r="F21">
-        <v>20.41851464366847</v>
+        <v>24.52982256314449</v>
       </c>
       <c r="I21">
-        <v>13.22174865213026</v>
+        <v>20.54174797383127</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.06841519592667</v>
+        <v>9.268184132916788</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.5828553070057</v>
+        <v>14.24612157299842</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.36729549452995</v>
+        <v>21.74990621318275</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.14966391795413</v>
+        <v>9.597066772581815</v>
       </c>
       <c r="C22">
-        <v>9.497105385838504</v>
+        <v>6.088255351276457</v>
       </c>
       <c r="D22">
-        <v>5.708474447735426</v>
+        <v>5.333800434807985</v>
       </c>
       <c r="E22">
-        <v>19.45481288926079</v>
+        <v>14.04780851368947</v>
       </c>
       <c r="F22">
-        <v>20.81200605302907</v>
+        <v>24.54844358428097</v>
       </c>
       <c r="I22">
-        <v>13.18175359088844</v>
+        <v>20.48814564366136</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.49764559954885</v>
+        <v>9.480064684582439</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.2503742469614</v>
+        <v>14.41595712097</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.49023090484202</v>
+        <v>21.71869459519715</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.87209698341816</v>
+        <v>9.469952109593843</v>
       </c>
       <c r="C23">
-        <v>9.348536957181395</v>
+        <v>6.015399099753391</v>
       </c>
       <c r="D23">
-        <v>5.647421084935152</v>
+        <v>5.309758740456396</v>
       </c>
       <c r="E23">
-        <v>19.05363594672532</v>
+        <v>13.94233582018649</v>
       </c>
       <c r="F23">
-        <v>20.60078211242371</v>
+        <v>24.53795757022235</v>
       </c>
       <c r="I23">
-        <v>13.20165324119824</v>
+        <v>20.51641170678648</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.27002040905752</v>
+        <v>9.367694209941277</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.89633718873465</v>
+        <v>14.32533371420371</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.4230523931682</v>
+        <v>21.73494228190328</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.77758932066363</v>
+        <v>8.973095754246863</v>
       </c>
       <c r="C24">
-        <v>8.765800422555051</v>
+        <v>5.729434225674114</v>
       </c>
       <c r="D24">
-        <v>5.40948860385368</v>
+        <v>5.216815353643929</v>
       </c>
       <c r="E24">
-        <v>17.48707979916754</v>
+        <v>13.54322837066202</v>
       </c>
       <c r="F24">
-        <v>19.82754407426986</v>
+        <v>24.51028749014063</v>
       </c>
       <c r="I24">
-        <v>13.30769041009896</v>
+        <v>20.63097825622492</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.37579752701966</v>
+        <v>8.926595579064319</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.5060441977907</v>
+        <v>13.98196188929637</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.20229812864819</v>
+        <v>21.80548132977871</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.50392969018602</v>
+        <v>8.406505697084194</v>
       </c>
       <c r="C25">
-        <v>8.094563543916877</v>
+        <v>5.400362215860368</v>
       </c>
       <c r="D25">
-        <v>5.139192368174203</v>
+        <v>5.11276213820237</v>
       </c>
       <c r="E25">
-        <v>15.74874445717566</v>
+        <v>13.11615760077365</v>
       </c>
       <c r="F25">
-        <v>19.05159367053216</v>
+        <v>24.50622602851737</v>
       </c>
       <c r="I25">
-        <v>13.48081301870011</v>
+        <v>20.77053715954404</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.34295312664946</v>
+        <v>8.418916833089558</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.89825221596693</v>
+        <v>13.61328190770182</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.03139578338564</v>
+        <v>21.9006988495608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_92/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_92/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.965722762100372</v>
+        <v>12.48568158992247</v>
       </c>
       <c r="C2">
-        <v>5.141302184792995</v>
+        <v>7.564110720260177</v>
       </c>
       <c r="D2">
-        <v>5.033115134359028</v>
+        <v>4.929213935328973</v>
       </c>
       <c r="E2">
-        <v>12.80736667787291</v>
+        <v>14.53766513045976</v>
       </c>
       <c r="F2">
-        <v>24.52540140325567</v>
+        <v>18.53093158748693</v>
       </c>
       <c r="I2">
-        <v>20.88698452704859</v>
+        <v>13.6524540436256</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.019165173221673</v>
+        <v>11.52448684531554</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.34531255437553</v>
+        <v>14.61909876578475</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.98715207275361</v>
+        <v>14.95830983644636</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.65402397521884</v>
+        <v>11.74548873549448</v>
       </c>
       <c r="C3">
-        <v>4.955890905370566</v>
+        <v>7.182526372829207</v>
       </c>
       <c r="D3">
-        <v>4.977371347440099</v>
+        <v>4.780559640415043</v>
       </c>
       <c r="E3">
-        <v>12.60303087404094</v>
+        <v>13.68636619101353</v>
       </c>
       <c r="F3">
-        <v>24.55218966510245</v>
+        <v>18.20982345299313</v>
       </c>
       <c r="I3">
-        <v>20.97441576261756</v>
+        <v>13.79339473911721</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.732999789525079</v>
+        <v>10.93438972135763</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.16692806278943</v>
+        <v>13.69183501005372</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.05587897094485</v>
+        <v>14.93900022997182</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.456945490711584</v>
+        <v>11.26642427687612</v>
       </c>
       <c r="C4">
-        <v>4.837442103993507</v>
+        <v>6.937602818620377</v>
       </c>
       <c r="D4">
-        <v>4.942317558238714</v>
+        <v>4.686346902682554</v>
       </c>
       <c r="E4">
-        <v>12.48047349263391</v>
+        <v>13.14970769416575</v>
       </c>
       <c r="F4">
-        <v>24.57542221950041</v>
+        <v>18.02827505040634</v>
       </c>
       <c r="I4">
-        <v>21.03228952619605</v>
+        <v>13.89117460176328</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.550151859790222</v>
+        <v>10.55499616345957</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.05933914864439</v>
+        <v>13.09251814847286</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.10305660923367</v>
+        <v>14.9411277502118</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.375323452522399</v>
+        <v>11.06505693115438</v>
       </c>
       <c r="C5">
-        <v>4.788058318118646</v>
+        <v>6.835175047657542</v>
       </c>
       <c r="D5">
-        <v>4.927831937099719</v>
+        <v>4.647248416088741</v>
       </c>
       <c r="E5">
-        <v>12.43133169749129</v>
+        <v>12.92772589886984</v>
       </c>
       <c r="F5">
-        <v>24.58659232514357</v>
+        <v>17.95820023484737</v>
       </c>
       <c r="I5">
-        <v>21.05692594679661</v>
+        <v>13.93372099688932</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.476200280888029</v>
+        <v>10.39617652844984</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.01603650315331</v>
+        <v>12.84074005464528</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.12353069553708</v>
+        <v>14.94537166972759</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.361694797733451</v>
+        <v>11.03125030630029</v>
       </c>
       <c r="C6">
-        <v>4.779792200726621</v>
+        <v>6.818010597212369</v>
       </c>
       <c r="D6">
-        <v>4.925414683452067</v>
+        <v>4.640714522398317</v>
       </c>
       <c r="E6">
-        <v>12.4232221718813</v>
+        <v>12.89067481928953</v>
       </c>
       <c r="F6">
-        <v>24.58854983368147</v>
+        <v>17.94679955042328</v>
       </c>
       <c r="I6">
-        <v>21.06108032764654</v>
+        <v>13.94094532621654</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.467170679401572</v>
+        <v>10.36955283739631</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.00888031663801</v>
+        <v>12.79847623032281</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.12700573098022</v>
+        <v>14.94627621977719</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.455849845605078</v>
+        <v>11.26373338578953</v>
       </c>
       <c r="C7">
-        <v>4.836780550537584</v>
+        <v>6.93623196808721</v>
       </c>
       <c r="D7">
-        <v>4.942123004240051</v>
+        <v>4.685822419769744</v>
       </c>
       <c r="E7">
-        <v>12.47980741243562</v>
+        <v>13.14672695735803</v>
       </c>
       <c r="F7">
-        <v>24.57556597457767</v>
+        <v>18.02731421013037</v>
       </c>
       <c r="I7">
-        <v>21.03261752230942</v>
+        <v>13.89173762568824</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.549130545273497</v>
+        <v>10.55287120908197</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.05875289551951</v>
+        <v>13.08915316705046</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.10332767787493</v>
+        <v>14.94117149751601</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.859499201187104</v>
+        <v>12.23558269944428</v>
       </c>
       <c r="C8">
-        <v>5.078352582384667</v>
+        <v>7.434774718065561</v>
       </c>
       <c r="D8">
-        <v>5.014070449092727</v>
+        <v>4.878586516352832</v>
       </c>
       <c r="E8">
-        <v>12.7363514881349</v>
+        <v>14.24715055730288</v>
       </c>
       <c r="F8">
-        <v>24.53322811958208</v>
+        <v>18.41696615811512</v>
       </c>
       <c r="I8">
-        <v>20.91626022354453</v>
+        <v>13.69863878958685</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.922014561031979</v>
+        <v>11.32460633082513</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.28343496710809</v>
+        <v>14.30558628744272</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.00981381961487</v>
+        <v>14.9486663532521</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.601234424360706</v>
+        <v>13.94544951531307</v>
       </c>
       <c r="C9">
-        <v>5.513886891621224</v>
+        <v>8.32634410766337</v>
       </c>
       <c r="D9">
-        <v>5.148299990107509</v>
+        <v>5.232002392878124</v>
       </c>
       <c r="E9">
-        <v>13.25932287702087</v>
+        <v>16.31136058670977</v>
       </c>
       <c r="F9">
-        <v>24.5041484902641</v>
+        <v>19.30514149561453</v>
       </c>
       <c r="I9">
-        <v>20.72139623791939</v>
+        <v>13.4152254321538</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.594070039828349</v>
+        <v>12.69994689329424</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.73706833516162</v>
+        <v>16.45450992405729</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.8660781323242</v>
+        <v>15.08042291320068</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.110477561380433</v>
+        <v>15.08195482199386</v>
       </c>
       <c r="C10">
-        <v>5.808712712280439</v>
+        <v>8.927335132998781</v>
       </c>
       <c r="D10">
-        <v>5.242351914854596</v>
+        <v>5.475174640630474</v>
       </c>
       <c r="E10">
-        <v>13.65140948460381</v>
+        <v>17.92033377456051</v>
       </c>
       <c r="F10">
-        <v>24.51576988589884</v>
+        <v>20.03288493734384</v>
       </c>
       <c r="I10">
-        <v>20.59862204425916</v>
+        <v>13.2739738108963</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.048888468086641</v>
+        <v>13.62390051949897</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.07512027044102</v>
+        <v>17.89178873242789</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.7848251991386</v>
+        <v>15.25669795857927</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.333490420013463</v>
+        <v>15.57311701866436</v>
       </c>
       <c r="C11">
-        <v>5.937057401422086</v>
+        <v>9.188853634096978</v>
       </c>
       <c r="D11">
-        <v>5.284069260736397</v>
+        <v>5.581965726553101</v>
       </c>
       <c r="E11">
-        <v>13.83059310120407</v>
+        <v>18.62331817302444</v>
       </c>
       <c r="F11">
-        <v>24.52822101173201</v>
+        <v>20.38004248077645</v>
       </c>
       <c r="I11">
-        <v>20.54721539386344</v>
+        <v>13.22635210320812</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.246858962109755</v>
+        <v>14.0252046529004</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.2292756108704</v>
+        <v>18.515673231372</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.75318400529708</v>
+        <v>15.3558008969566</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.41663473316658</v>
+        <v>15.75541143259734</v>
       </c>
       <c r="C12">
-        <v>5.984806324020411</v>
+        <v>9.28617264274828</v>
       </c>
       <c r="D12">
-        <v>5.299706755940965</v>
+        <v>5.621836341807229</v>
       </c>
       <c r="E12">
-        <v>13.89849095896478</v>
+        <v>18.88547160860326</v>
       </c>
       <c r="F12">
-        <v>24.53396456655485</v>
+        <v>20.51379132779771</v>
       </c>
       <c r="I12">
-        <v>20.52838970739786</v>
+        <v>13.21089605756388</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.320508049894711</v>
+        <v>14.17442750621371</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.28764930269591</v>
+        <v>18.74768904748629</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.74197012221235</v>
+        <v>15.39617752084573</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.398787100625398</v>
+        <v>15.71631519114842</v>
       </c>
       <c r="C13">
-        <v>5.974560972415569</v>
+        <v>9.265289417906452</v>
       </c>
       <c r="D13">
-        <v>5.296346156374822</v>
+        <v>5.613275054204934</v>
       </c>
       <c r="E13">
-        <v>13.88386708427772</v>
+        <v>18.82919046120274</v>
       </c>
       <c r="F13">
-        <v>24.53268188013465</v>
+        <v>20.48488480543326</v>
       </c>
       <c r="I13">
-        <v>20.53241562197838</v>
+        <v>13.21410712462315</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.304705513978742</v>
+        <v>14.14241171103079</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.27507842103518</v>
+        <v>18.69790747581476</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.74435103576284</v>
+        <v>15.38735300914588</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.340357251516409</v>
+        <v>15.58818848020838</v>
       </c>
       <c r="C14">
-        <v>5.94100293431017</v>
+        <v>9.196894450104825</v>
       </c>
       <c r="D14">
-        <v>5.2853590089456</v>
+        <v>5.58525740196259</v>
       </c>
       <c r="E14">
-        <v>13.83617860997131</v>
+        <v>18.64496621011059</v>
       </c>
       <c r="F14">
-        <v>24.52867293627362</v>
+        <v>20.39100038517148</v>
       </c>
       <c r="I14">
-        <v>20.54565373807707</v>
+        <v>13.22502778006361</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.252944710849329</v>
+        <v>14.03753628758507</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.23407839364857</v>
+        <v>18.53484577322532</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.75224602635061</v>
+        <v>15.35906489878304</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.304395513631704</v>
+        <v>15.50922620932639</v>
       </c>
       <c r="C15">
-        <v>5.920336048848774</v>
+        <v>9.15477752643565</v>
       </c>
       <c r="D15">
-        <v>5.27860804438226</v>
+        <v>5.568021202771952</v>
       </c>
       <c r="E15">
-        <v>13.80697175704954</v>
+        <v>18.53159942705077</v>
       </c>
       <c r="F15">
-        <v>24.52635122747258</v>
+        <v>20.33379058921074</v>
       </c>
       <c r="I15">
-        <v>20.55384598555022</v>
+        <v>13.23205828295009</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.221067145753885</v>
+        <v>13.97293981378258</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.20896286649522</v>
+        <v>18.43441636880461</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.75718202471966</v>
+        <v>15.34211230578707</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.095723630263318</v>
+        <v>15.0493376170765</v>
       </c>
       <c r="C16">
-        <v>5.80020694011136</v>
+        <v>8.910004769616943</v>
       </c>
       <c r="D16">
-        <v>5.239603551682131</v>
+        <v>5.468116922619842</v>
       </c>
       <c r="E16">
-        <v>13.63970963483612</v>
+        <v>17.87381880565118</v>
       </c>
       <c r="F16">
-        <v>24.51510022490802</v>
+        <v>20.01051903882051</v>
       </c>
       <c r="I16">
-        <v>20.60207117220595</v>
+        <v>13.27743635967461</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.035767936540315</v>
+        <v>13.59729089415629</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.06504861764753</v>
+        <v>17.85041970184288</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.78700034265922</v>
+        <v>15.25061306200662</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.965448629305053</v>
+        <v>14.76060315591762</v>
       </c>
       <c r="C17">
-        <v>5.725016138413486</v>
+        <v>8.756797603212469</v>
       </c>
       <c r="D17">
-        <v>5.215397506003725</v>
+        <v>5.405834348136115</v>
       </c>
       <c r="E17">
-        <v>13.53725736105801</v>
+        <v>17.46295272965842</v>
       </c>
       <c r="F17">
-        <v>24.51003224200009</v>
+        <v>19.81630720273136</v>
       </c>
       <c r="I17">
-        <v>20.63279528418393</v>
+        <v>13.30966376581578</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.919780200733653</v>
+        <v>13.36196489781548</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.97681784869508</v>
+        <v>17.48453511526714</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.80665782983479</v>
+        <v>15.19941875166246</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.889707392374175</v>
+        <v>14.59209706747976</v>
       </c>
       <c r="C18">
-        <v>5.68122610695287</v>
+        <v>8.667558972573271</v>
       </c>
       <c r="D18">
-        <v>5.201374738014733</v>
+        <v>5.369651556574086</v>
       </c>
       <c r="E18">
-        <v>13.47841109920339</v>
+        <v>17.22390147542726</v>
       </c>
       <c r="F18">
-        <v>24.50779179285801</v>
+        <v>19.70611920899291</v>
       </c>
       <c r="I18">
-        <v>20.65088515368041</v>
+        <v>13.32975416938632</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.852228425000385</v>
+        <v>13.22482251059766</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.92610826829916</v>
+        <v>17.27126510965133</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.8184649968999</v>
+        <v>15.17174607946342</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.863925565900839</v>
+        <v>14.53462538628601</v>
       </c>
       <c r="C19">
-        <v>5.666307150132949</v>
+        <v>8.637152552862393</v>
       </c>
       <c r="D19">
-        <v>5.196609880101021</v>
+        <v>5.357339537795096</v>
       </c>
       <c r="E19">
-        <v>13.45850304328205</v>
+        <v>17.14249045061087</v>
       </c>
       <c r="F19">
-        <v>24.50714909866641</v>
+        <v>19.66907292686199</v>
       </c>
       <c r="I19">
-        <v>20.65708183776948</v>
+        <v>13.33681784674345</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.829213626259486</v>
+        <v>13.1780816025416</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.90894718262751</v>
+        <v>17.19856872901149</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.82254860889828</v>
+        <v>15.16267709400412</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.979400992261066</v>
+        <v>14.79159119958689</v>
       </c>
       <c r="C20">
-        <v>5.733076621983919</v>
+        <v>8.7732225229368</v>
       </c>
       <c r="D20">
-        <v>5.217984687531703</v>
+        <v>5.412501781747216</v>
       </c>
       <c r="E20">
-        <v>13.54815567507464</v>
+        <v>17.50697211060718</v>
       </c>
       <c r="F20">
-        <v>24.51050193583573</v>
+        <v>19.83682452887207</v>
       </c>
       <c r="I20">
-        <v>20.62948135721961</v>
+        <v>13.30607095144632</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.932214357619381</v>
+        <v>13.38720101135689</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.98620659300736</v>
+        <v>17.52377583102988</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.804513415427</v>
+        <v>15.20468403365701</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.357555410732243</v>
+        <v>15.62592259238293</v>
       </c>
       <c r="C21">
-        <v>5.950883040073342</v>
+        <v>9.217030188980644</v>
       </c>
       <c r="D21">
-        <v>5.288590592153461</v>
+        <v>5.593502436563806</v>
       </c>
       <c r="E21">
-        <v>13.85018522412683</v>
+        <v>18.69918634587208</v>
       </c>
       <c r="F21">
-        <v>24.52982256314449</v>
+        <v>20.41851464366845</v>
       </c>
       <c r="I21">
-        <v>20.54174797383127</v>
+        <v>13.22174865213027</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.268184132916788</v>
+        <v>14.06841519592664</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.24612157299842</v>
+        <v>18.5828553070057</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.74990621318275</v>
+        <v>15.36729549453</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.597066772581815</v>
+        <v>16.14966391795408</v>
       </c>
       <c r="C22">
-        <v>6.088255351276457</v>
+        <v>9.49710538583849</v>
       </c>
       <c r="D22">
-        <v>5.333800434807985</v>
+        <v>5.708474447735484</v>
       </c>
       <c r="E22">
-        <v>14.04780851368947</v>
+        <v>19.45481288926079</v>
       </c>
       <c r="F22">
-        <v>24.54844358428097</v>
+        <v>20.81200605302913</v>
       </c>
       <c r="I22">
-        <v>20.48814564366136</v>
+        <v>13.18175359088853</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.480064684582439</v>
+        <v>14.49764559954883</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.41595712097</v>
+        <v>19.25037424696139</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.71869459519715</v>
+        <v>15.49023090484207</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.469952109593843</v>
+        <v>15.87209698341825</v>
       </c>
       <c r="C23">
-        <v>6.015399099753391</v>
+        <v>9.348536957181354</v>
       </c>
       <c r="D23">
-        <v>5.309758740456396</v>
+        <v>5.647421084935135</v>
       </c>
       <c r="E23">
-        <v>13.94233582018649</v>
+        <v>19.05363594672534</v>
       </c>
       <c r="F23">
-        <v>24.53795757022235</v>
+        <v>20.60078211242365</v>
       </c>
       <c r="I23">
-        <v>20.51641170678648</v>
+        <v>13.20165324119813</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.367694209941277</v>
+        <v>14.27002040905756</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.32533371420371</v>
+        <v>18.89633718873469</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.73494228190328</v>
+        <v>15.4230523931681</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.973095754246863</v>
+        <v>14.77758932066363</v>
       </c>
       <c r="C24">
-        <v>5.729434225674114</v>
+        <v>8.765800422555097</v>
       </c>
       <c r="D24">
-        <v>5.216815353643929</v>
+        <v>5.40948860385371</v>
       </c>
       <c r="E24">
-        <v>13.54322837066202</v>
+        <v>17.48707979916746</v>
       </c>
       <c r="F24">
-        <v>24.51028749014063</v>
+        <v>19.82754407426987</v>
       </c>
       <c r="I24">
-        <v>20.63097825622492</v>
+        <v>13.307690410099</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.926595579064319</v>
+        <v>13.3757975270197</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.98196188929637</v>
+        <v>17.50604419779067</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.80548132977871</v>
+        <v>15.2022981286482</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.406505697084194</v>
+        <v>13.50392969018603</v>
       </c>
       <c r="C25">
-        <v>5.400362215860368</v>
+        <v>8.094563543916774</v>
       </c>
       <c r="D25">
-        <v>5.11276213820237</v>
+        <v>5.139192368174295</v>
       </c>
       <c r="E25">
-        <v>13.11615760077365</v>
+        <v>15.74874445717567</v>
       </c>
       <c r="F25">
-        <v>24.50622602851737</v>
+        <v>19.05159367053217</v>
       </c>
       <c r="I25">
-        <v>20.77053715954404</v>
+        <v>13.48081301870013</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.418916833089558</v>
+        <v>12.34295312664942</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.61328190770182</v>
+        <v>15.8982522159669</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.9006988495608</v>
+        <v>15.03139578338569</v>
       </c>
     </row>
   </sheetData>
